--- a/biology/Zoologie/Catopsilia_thauruma/Catopsilia_thauruma.xlsx
+++ b/biology/Zoologie/Catopsilia_thauruma/Catopsilia_thauruma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia thauruma est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Catopsilia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia thauruma a été décrit par Tryon Reakirt en 1866 sous le nom de Callidryas thauruma.
-Synonymes : Eronia grandidieri Mabille, 1877; Catopsilia mabillei Neustetter, 1929[1].
-Noms vernaculaires
-Catopsilia thauruma se nomme en anglais Emigrant butterfly[2]
+Synonymes : Eronia grandidieri Mabille, 1877; Catopsilia mabillei Neustetter, 1929.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon de couleur jaune plus ou moins clair à l'apex des antérieures pointues. Le mâle est uniformément jaune alors que la femelle possède une bordure marron foncé plus marquée aux antérieures, une ligne submarginale de quelques points marron et un point discoïdal aux antérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia thauruma se nomme en anglais Emigrant butterfly
 </t>
         </is>
       </c>
@@ -573,17 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Il vole toute l'année[3].
-Plantes hôtes
-Ce sont toutes des Cassia (Cassia alata, Cassia fistula, Cassia siamea, Cassia tora)[3].
-Parasitisme
-Les chenilles sont parasitées par des Brochonidae et des Tachinidae.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de couleur jaune plus ou moins clair à l'apex des antérieures pointues. Le mâle est uniformément jaune alors que la femelle possède une bordure marron foncé plus marquée aux antérieures, une ligne submarginale de quelques points marron et un point discoïdal aux antérieures.
 </t>
         </is>
       </c>
@@ -609,16 +624,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont toutes des Cassia (Cassia alata, Cassia fistula, Cassia siamea, Cassia tora).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont parasitées par des Brochonidae et des Tachinidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catopsilia thauruma est présent à Madagascar et dans les Mascareignes à l'ile Maurice et l'île de La Réunion[1].
-Biotope
-Il réside à basse altitude dans la zone des Cassia le genre des plantes hôtes de sa chenille[3].
-Protection
-Catopsilia thauruma est inscrit LC sur la liste rouge des rhopalocères (papillons diurnes)[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia thauruma est présent à Madagascar et dans les Mascareignes à l'ile Maurice et l'île de La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à basse altitude dans la zone des Cassia le genre des plantes hôtes de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_thauruma</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia thauruma est inscrit LC sur la liste rouge des rhopalocères (papillons diurnes).
 </t>
         </is>
       </c>
